--- a/report/source/Supporting/Security Claims Workbook_v1.2 20201007.xlsx
+++ b/report/source/Supporting/Security Claims Workbook_v1.2 20201007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/979ded2d4b39a8ae/Documents/GitHub/RABET-V-Pilot/report/source/Supporting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C2552674-9768-411D-9E9A-538D17BBB54A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{789F52BF-C38A-47B7-8D5F-4BA5F80A9E8A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C2552674-9768-411D-9E9A-538D17BBB54A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECD12223-2C48-4E89-B2B8-7AF3AAA0A1C0}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" activeTab="2" xr2:uid="{395A1401-83D8-BE42-8202-6ADEA40700EF}"/>
+    <workbookView xWindow="-69" yWindow="-69" windowWidth="25852" windowHeight="16680" firstSheet="5" activeTab="10" xr2:uid="{395A1401-83D8-BE42-8202-6ADEA40700EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="11" r:id="rId1"/>
@@ -3994,16 +3994,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F2B2E-D884-054C-89DD-B1EDAD39E2D7}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.35546875" customWidth="1"/>
+    <col min="3" max="3" width="54.2109375" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="44.35546875" style="2" customWidth="1"/>
@@ -5167,7 +5167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8369BD-4210-2F42-9977-811439A1FCAF}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -9213,12 +9213,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100140FCC42739A9245BD5D446DA351F7A0" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d33ca79ed21676c7168e9aa9d4478173">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a70c3e0-8d78-4001-904e-2db7d6c1853d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="796a7cbebbe6acc7ecff6c6630e77bf1" ns2:_="">
     <xsd:import namespace="6a70c3e0-8d78-4001-904e-2db7d6c1853d"/>
@@ -9396,6 +9390,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9406,22 +9406,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D593A5-5991-4213-B92F-DC6BC46C28B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6a70c3e0-8d78-4001-904e-2db7d6c1853d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{336B6E1A-B215-43F1-9EA7-43AA78368A29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9439,6 +9423,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D593A5-5991-4213-B92F-DC6BC46C28B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6a70c3e0-8d78-4001-904e-2db7d6c1853d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E094DD-2F11-41F5-9852-40A0A2917592}">
   <ds:schemaRefs>
